--- a/public/u_excel/1.LM.2.xlsx
+++ b/public/u_excel/1.LM.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\geografico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3822020-B1B3-40C9-A746-4C827684040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875FC639-EB69-4FF8-8430-845B54008985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Nombre</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>San Francisco Tres Jacales</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ciudad Juárez </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>d/</t>
-    </r>
   </si>
   <si>
     <r>
@@ -117,27 +102,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Nota:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Las localidades corresponden a las de mayor población en el municipio de Juárez de acuerdo al Censo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">a/ </t>
     </r>
     <r>
@@ -265,76 +229,118 @@
     <t>31°28'25.609" N</t>
   </si>
   <si>
+    <t>Población 2010</t>
+  </si>
+  <si>
+    <t>106°29'13''</t>
+  </si>
+  <si>
+    <t>31°44'22''</t>
+  </si>
+  <si>
+    <t>106°16'44''</t>
+  </si>
+  <si>
+    <t>31°32'54''</t>
+  </si>
+  <si>
+    <t>106°17'55''</t>
+  </si>
+  <si>
+    <t>31°34'47''</t>
+  </si>
+  <si>
+    <t>106°28'42''</t>
+  </si>
+  <si>
+    <t>31°20'29''</t>
+  </si>
+  <si>
+    <t>106°15'35''</t>
+  </si>
+  <si>
+    <t>31°30'56''</t>
+  </si>
+  <si>
+    <t>106°11'58''</t>
+  </si>
+  <si>
+    <t>31°27'24''</t>
+  </si>
+  <si>
+    <t>106°14'09''</t>
+  </si>
+  <si>
+    <t>31°29'33''</t>
+  </si>
+  <si>
+    <t>106°13'25''</t>
+  </si>
+  <si>
+    <t>31°28'25''</t>
+  </si>
+  <si>
+    <r>
+      <t>Longitud</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Fuente:</t>
+      <t>/a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Latitud</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Censo de Población y Vivienda 2020, INEGI</t>
-    </r>
-  </si>
-  <si>
-    <t>Población 2010</t>
-  </si>
-  <si>
-    <t>106°29'13''</t>
-  </si>
-  <si>
-    <t>31°44'22''</t>
-  </si>
-  <si>
-    <t>106°16'44''</t>
-  </si>
-  <si>
-    <t>31°32'54''</t>
-  </si>
-  <si>
-    <t>106°17'55''</t>
-  </si>
-  <si>
-    <t>31°34'47''</t>
-  </si>
-  <si>
-    <t>106°28'42''</t>
-  </si>
-  <si>
-    <t>31°20'29''</t>
-  </si>
-  <si>
-    <t>106°15'35''</t>
-  </si>
-  <si>
-    <t>31°30'56''</t>
-  </si>
-  <si>
-    <t>106°11'58''</t>
-  </si>
-  <si>
-    <t>31°27'24''</t>
-  </si>
-  <si>
-    <t>106°14'09''</t>
-  </si>
-  <si>
-    <t>31°29'33''</t>
-  </si>
-  <si>
-    <t>106°13'25''</t>
-  </si>
-  <si>
-    <t>31°28'25''</t>
+      <t>/b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Altitud</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ciudad Juárez </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/d</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -718,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -890,15 +896,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="5" tint="-0.24994659260841701"/>
       </right>
@@ -966,7 +963,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,24 +999,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1364,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1385,27 +1381,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="3">
         <v>1137</v>
@@ -1419,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5">
         <v>1113</v>
@@ -1436,10 +1432,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
         <v>1120</v>
@@ -1453,10 +1449,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5">
         <v>1263</v>
@@ -1470,10 +1466,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7">
         <v>1121</v>
@@ -1487,10 +1483,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5">
         <v>1100</v>
@@ -1504,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
         <v>1117</v>
@@ -1517,19 +1513,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="B9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="16">
         <v>1110</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>236</v>
       </c>
     </row>
@@ -1538,27 +1534,27 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3">
         <v>1131</v>
@@ -1572,10 +1568,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5">
         <v>1116</v>
@@ -1589,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
         <v>1129</v>
@@ -1606,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5">
         <v>1262</v>
@@ -1623,10 +1619,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7">
         <v>1120</v>
@@ -1640,10 +1636,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="5">
         <v>1104</v>
@@ -1657,10 +1653,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
         <v>1101</v>
@@ -1669,15 +1665,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5">
         <v>1104</v>
@@ -1686,67 +1682,63 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+    <row r="19" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29"/>
@@ -1790,28 +1782,13 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A24:E24"/>
+  <mergeCells count="5">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/public/u_excel/1.LM.2.xlsx
+++ b/public/u_excel/1.LM.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875FC639-EB69-4FF8-8430-845B54008985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB433DC4-5997-4D8F-AAA5-BE5C450793F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -875,37 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="5" tint="-0.24994659260841701"/>
       </left>
@@ -914,6 +883,223 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -963,7 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,38 +1170,104 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1362,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1376,42 +1628,42 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="3">
         <v>1137</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="29">
         <v>1321004</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1423,12 +1675,12 @@
       <c r="D3" s="5">
         <v>1113</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="31">
         <v>3483</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1440,12 +1692,12 @@
       <c r="D4" s="7">
         <v>1120</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="33">
         <v>2169</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1457,12 +1709,12 @@
       <c r="D5" s="5">
         <v>1263</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="31">
         <v>1474</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1474,12 +1726,12 @@
       <c r="D6" s="7">
         <v>1121</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="33">
         <v>1359</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1491,12 +1743,12 @@
       <c r="D7" s="5">
         <v>1100</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="34">
         <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1508,29 +1760,29 @@
       <c r="D8" s="7">
         <v>1117</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="35">
         <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>1110</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="37">
         <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1542,15 +1794,15 @@
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1559,12 +1811,12 @@
       <c r="D11" s="3">
         <v>1131</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="29">
         <v>1501551</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1576,12 +1828,12 @@
       <c r="D12" s="5">
         <v>1116</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="31">
         <v>3383</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1593,12 +1845,12 @@
       <c r="D13" s="7">
         <v>1129</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="33">
         <v>2065</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1610,12 +1862,12 @@
       <c r="D14" s="5">
         <v>1262</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="31">
         <v>1577</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1627,12 +1879,12 @@
       <c r="D15" s="7">
         <v>1120</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="33">
         <v>1373</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1644,12 +1896,12 @@
       <c r="D16" s="5">
         <v>1104</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="31">
         <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1661,70 +1913,70 @@
       <c r="D17" s="7">
         <v>1101</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="33">
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="11">
         <v>1104</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="37">
         <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27"/>

--- a/public/u_excel/1.LM.2.xlsx
+++ b/public/u_excel/1.LM.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB433DC4-5997-4D8F-AAA5-BE5C450793F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B987140-1AE6-4442-AFD4-B81466957849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Nombre</t>
   </si>
@@ -44,38 +44,6 @@
   </si>
   <si>
     <t>San Francisco Tres Jacales</t>
-  </si>
-  <si>
-    <r>
-      <t>Longitud</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Latitud</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b/</t>
-    </r>
   </si>
   <si>
     <r>
@@ -94,99 +62,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">a/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ubicación de la localidad al oeste del Meridiano de Greenwich, expresada en grados, minutos y segundos. Las primeras tres posiciones corresponden a los grados; las siguientes dos posiciones indican los minutos y las dos últimas posiciones a los segundos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ubicación de la localidad al norte del Ecuador, expresada en grados, minutos y segundos. Las primeras dos posiciones corresponden a los grados; las siguientes dos a los minutos y las últimas dos posiciones a los segundos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">c/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Altitud a la que se encuentra una localidad respecto al nivel medio del mar, expresada en metros.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>d/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Cabecera municipal</t>
-    </r>
-  </si>
-  <si>
     <t>106°29'06.067" W</t>
   </si>
   <si>
     <t>31°44'47.275" N</t>
   </si>
   <si>
-    <t>Población 2020</t>
-  </si>
-  <si>
     <t>106°17'48.434" W</t>
   </si>
   <si>
@@ -229,9 +110,6 @@
     <t>31°28'25.609" N</t>
   </si>
   <si>
-    <t>Población 2010</t>
-  </si>
-  <si>
     <t>106°29'13''</t>
   </si>
   <si>
@@ -278,38 +156,6 @@
   </si>
   <si>
     <t>31°28'25''</t>
-  </si>
-  <si>
-    <r>
-      <t>Longitud</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Latitud</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/b</t>
-    </r>
   </si>
   <si>
     <r>
@@ -342,6 +188,141 @@
       <t>/d</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Población </t>
+  </si>
+  <si>
+    <r>
+      <t>Longitud</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (a)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Longitud</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(a)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Latitud</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(b)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ubicación de la localidad al norte del Ecuador, expresada en grados, minutos y segundos. Las primeras dos posiciones corresponden a los grados; las siguientes dos a los minutos y las últimas dos posiciones a los segundos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ubicación de la localidad al oeste del Meridiano de Greenwich, expresada en grados, minutos y segundos. Las primeras tres posiciones corresponden a los grados; las siguientes dos posiciones indican los minutos y las dos últimas posiciones a los segundos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Altitud a la que se encuentra una localidad respecto al nivel medio del mar, expresada en metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(d)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cabecera municipal</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -724,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -842,266 +823,195 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="double">
         <color auto="1"/>
       </top>
-      <bottom style="double">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </right>
       <top style="double">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1149,125 +1059,89 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1612,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1628,369 +1502,373 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1137</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1321004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1113</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1120</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1263</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1121</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="24">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1117</v>
+      </c>
+      <c r="E9" s="22">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1110</v>
+      </c>
+      <c r="E10" s="24">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1131</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1501551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1116</v>
+      </c>
+      <c r="E14" s="25">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1129</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1262</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1120</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="25">
+        <v>1104</v>
+      </c>
+      <c r="E18" s="25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1101</v>
+      </c>
+      <c r="E19" s="23">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1104</v>
+      </c>
+      <c r="E20" s="24">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1137</v>
-      </c>
-      <c r="E2" s="29">
-        <v>1321004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1113</v>
-      </c>
-      <c r="E3" s="31">
-        <v>3483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1120</v>
-      </c>
-      <c r="E4" s="33">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1263</v>
-      </c>
-      <c r="E5" s="31">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1121</v>
-      </c>
-      <c r="E6" s="33">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1100</v>
-      </c>
-      <c r="E7" s="34">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1117</v>
-      </c>
-      <c r="E8" s="35">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1110</v>
-      </c>
-      <c r="E9" s="37">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1131</v>
-      </c>
-      <c r="E11" s="29">
-        <v>1501551</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1116</v>
-      </c>
-      <c r="E12" s="31">
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1129</v>
-      </c>
-      <c r="E13" s="33">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1262</v>
-      </c>
-      <c r="E14" s="31">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1120</v>
-      </c>
-      <c r="E15" s="33">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1104</v>
-      </c>
-      <c r="E16" s="31">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1101</v>
-      </c>
-      <c r="E17" s="33">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1104</v>
-      </c>
-      <c r="E18" s="37">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29"/>
@@ -2034,13 +1912,29 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/public/u_excel/1.LM.2.xlsx
+++ b/public/u_excel/1.LM.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B987140-1AE6-4442-AFD4-B81466957849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0941757C-AC6C-48F4-AF23-92C97A8DDFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Nombre</t>
   </si>
@@ -46,22 +46,6 @@
     <t>San Francisco Tres Jacales</t>
   </si>
   <si>
-    <r>
-      <t>Altitud</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>c/</t>
-    </r>
-  </si>
-  <si>
     <t>106°29'06.067" W</t>
   </si>
   <si>
@@ -156,37 +140,6 @@
   </si>
   <si>
     <t>31°28'25''</t>
-  </si>
-  <si>
-    <r>
-      <t>Altitud</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ciudad Juárez </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/d</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Población </t>
@@ -323,6 +276,37 @@
       <t xml:space="preserve"> Cabecera municipal</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Altitud</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(c)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ciudad Juárez </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(d)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -705,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -821,15 +805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -898,46 +873,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -946,71 +882,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1059,89 +931,65 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1488,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1502,373 +1350,373 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="19">
         <v>2010</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="4">
+        <v>1137</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1321004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="23">
-        <v>1137</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1321004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="6">
+        <v>1113</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="25">
-        <v>1113</v>
-      </c>
-      <c r="E4" s="25">
-        <v>3483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="4">
+        <v>1120</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="23">
-        <v>1120</v>
-      </c>
-      <c r="E5" s="23">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="6">
+        <v>1263</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="25">
-        <v>1263</v>
-      </c>
-      <c r="E6" s="25">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="4">
+        <v>1121</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="23">
-        <v>1121</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="6">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="5">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="25">
-        <v>1100</v>
-      </c>
-      <c r="E8" s="24">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="4">
+        <v>1117</v>
+      </c>
+      <c r="E9" s="3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="23">
-        <v>1117</v>
-      </c>
-      <c r="E9" s="22">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="D10" s="6">
         <v>1110</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="5">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
         <v>2020</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1131</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1501551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1116</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1129</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1262</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1120</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1104</v>
+      </c>
+      <c r="E18" s="6">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1101</v>
+      </c>
+      <c r="E19" s="4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1104</v>
+      </c>
+      <c r="E20" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="23">
-        <v>1131</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1501551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="25">
-        <v>1116</v>
-      </c>
-      <c r="E14" s="25">
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="23">
-        <v>1129</v>
-      </c>
-      <c r="E15" s="23">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="25">
-        <v>1262</v>
-      </c>
-      <c r="E16" s="25">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="23">
-        <v>1120</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="25">
-        <v>1104</v>
-      </c>
-      <c r="E18" s="25">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="23">
-        <v>1101</v>
-      </c>
-      <c r="E19" s="23">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="25">
-        <v>1104</v>
-      </c>
-      <c r="E20" s="24">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29"/>
